--- a/data/trans_dic/P16B07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,3%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>89,33; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>92,48; 99,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>97,7; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>95,44; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>93,66; 99,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>97,47; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>96,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,42%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>74,08; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>90,08; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>93,97; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>95,78; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>90,63; 98,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>95,31; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>96,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,4%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>91,12; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>97,94; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>97,38; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>94,17; 99,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>97,64; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>94,73; 98,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>98,26; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>97,9; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,33; 100,0</t>
+          <t>90,87; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,48; 99,17</t>
+          <t>92,62; 99,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,7; 100,0</t>
+          <t>97,14; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,44; 100,0</t>
+          <t>95,49; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,66; 99,28</t>
+          <t>93,61; 99,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>97,47; 100,0</t>
+          <t>97,72; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,15; 100,0</t>
+          <t>96,45; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,08; 100,0</t>
+          <t>75,08; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,08; 100,0</t>
+          <t>91,32; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>93,97; 100,0</t>
+          <t>93,36; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,78; 100,0</t>
+          <t>96,03; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,63; 98,89</t>
+          <t>91,6; 98,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,31; 100,0</t>
+          <t>95,93; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,51; 100,0</t>
+          <t>97,04; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,12; 100,0</t>
+          <t>90,32; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,17; 99,05</t>
+          <t>94,22; 99,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,31; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,64; 100,0</t>
+          <t>97,62; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,73; 98,92</t>
+          <t>94,78; 98,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,26; 100,0</t>
+          <t>98,27; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>97,9; 100,0</t>
+          <t>97,89; 100,0</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos antidepresivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38414</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48835</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31843</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>126008</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>189379</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>108766</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>164421</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>238214</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>140609</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35673; 39258</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46761; 48835</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30002; 31843</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>120037; 128527</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>185023; 190466</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>104805; 109751</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>158068; 167651</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>233836; 239301</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>136565; 141594</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16696</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47904</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38213</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>67485</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95274</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>120412</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>84181</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>143179</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>158625</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13299; 17714</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45823; 47904</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36293; 38213</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>63441; 69468</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>90041; 96450</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>116520; 121337</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>79859; 86202</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>138478; 144355</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>154820; 159550</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11317</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2983</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16103</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9689</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14541</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27419</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16872</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17524</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9675; 11317</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4988; 7184</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1658; 2983</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14198; 16103</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7874; 9689</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12580; 14541</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25553; 27419</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14745; 16872</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15571; 17524</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>66425</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103923</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>73039</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>209596</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>294341</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>243720</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>276022</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>398265</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>316759</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>61678; 68288</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>101782; 103923</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>71123; 73039</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>202739; 213138</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>288637; 296605</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>239774; 245629</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>268664; 280180</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>393612; 400529</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>311958; 318668</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>